--- a/data/DONNEES DOUANE PYTHON.xlsx
+++ b/data/DONNEES DOUANE PYTHON.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\socoger\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03_Data_Scientist\adam_facture\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB79856-CD49-4068-85F1-8D8C35696355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782A0440-3377-43D3-AE77-B3EE90F69596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1FD75016-A00C-4D20-BE15-4A1B0931F8AE}"/>
+    <workbookView xWindow="0" yWindow="156" windowWidth="23040" windowHeight="15552" activeTab="1" xr2:uid="{1FD75016-A00C-4D20-BE15-4A1B0931F8AE}"/>
   </bookViews>
   <sheets>
     <sheet name="STE+NO HABILITE" sheetId="1" r:id="rId1"/>
@@ -23,23 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="74">
   <si>
     <t>NOM STE</t>
   </si>
@@ -258,17 +247,21 @@
   </si>
   <si>
     <t>DOUDOUNE</t>
+  </si>
+  <si>
+    <t>Débardeur</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -307,6 +300,13 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -743,14 +743,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1955C21A-9B87-44A6-8719-14128C553BF6}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -778,27 +778,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EA7AF2-AA55-4AC8-863C-5462B8AA831B}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="20.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>35</v>
       </c>
@@ -809,7 +810,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -820,7 +821,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>59</v>
       </c>
@@ -831,7 +832,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>38</v>
       </c>
@@ -842,7 +843,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>70</v>
       </c>
@@ -853,7 +854,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>39</v>
       </c>
@@ -864,7 +865,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>55</v>
       </c>
@@ -875,7 +876,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>56</v>
       </c>
@@ -886,7 +887,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>64</v>
       </c>
@@ -897,7 +898,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>63</v>
       </c>
@@ -908,7 +909,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
@@ -919,7 +920,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>66</v>
       </c>
@@ -930,7 +931,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>61</v>
       </c>
@@ -941,7 +942,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>57</v>
       </c>
@@ -952,7 +953,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>71</v>
       </c>
@@ -963,7 +964,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>72</v>
       </c>
@@ -974,7 +975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>41</v>
       </c>
@@ -985,7 +986,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>58</v>
       </c>
@@ -996,7 +997,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>67</v>
       </c>
@@ -1007,7 +1008,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>42</v>
       </c>
@@ -1018,7 +1019,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>43</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>54</v>
       </c>
@@ -1040,7 +1041,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>60</v>
       </c>
@@ -1051,7 +1052,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>44</v>
       </c>
@@ -1062,7 +1063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>45</v>
       </c>
@@ -1073,7 +1074,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>68</v>
       </c>
@@ -1084,7 +1085,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>62</v>
       </c>
@@ -1095,7 +1096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>46</v>
       </c>
@@ -1106,7 +1107,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>47</v>
       </c>
@@ -1117,7 +1118,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>48</v>
       </c>
@@ -1128,7 +1129,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>50</v>
       </c>
@@ -1139,7 +1140,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>49</v>
       </c>
@@ -1150,7 +1151,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>69</v>
       </c>
@@ -1161,7 +1162,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>51</v>
       </c>
@@ -1172,7 +1173,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>52</v>
       </c>
@@ -1183,7 +1184,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>53</v>
       </c>
@@ -1192,12 +1193,24 @@
       </c>
       <c r="C36" s="7">
         <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="8">
+        <v>62089900</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B36">
     <sortCondition ref="A1:A36"/>
   </sortState>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1211,21 +1224,21 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="26.5703125" customWidth="1"/>
-    <col min="13" max="1024" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="26.5546875" customWidth="1"/>
+    <col min="13" max="1024" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1263,7 +1276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1287,7 +1300,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1311,7 +1324,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1335,7 +1348,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1359,7 +1372,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1383,7 +1396,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1407,7 +1420,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1431,7 +1444,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1455,7 +1468,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1479,7 +1492,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1503,7 +1516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1527,7 +1540,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1551,7 +1564,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1575,7 +1588,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1599,7 +1612,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1623,7 +1636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1647,7 +1660,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1671,7 +1684,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1695,7 +1708,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1719,7 +1732,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1743,7 +1756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1767,7 +1780,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1871,6 +1884,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1883,16 +1897,16 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.7" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="1024" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="1024" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1927,7 +1941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1940,7 +1954,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1953,7 +1967,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1966,7 +1980,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1979,7 +1993,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1992,7 +2006,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2005,7 +2019,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2018,7 +2032,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2031,7 +2045,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2044,7 +2058,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2057,7 +2071,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2070,7 +2084,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2083,7 +2097,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2096,7 +2110,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2109,7 +2123,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2122,7 +2136,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2135,7 +2149,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2148,7 +2162,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2161,7 +2175,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2174,7 +2188,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2187,7 +2201,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2200,7 +2214,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2213,7 +2227,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="25" spans="1:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2221,7 +2235,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2229,17 +2243,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -2247,7 +2261,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -2255,7 +2269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2263,7 +2277,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -2271,7 +2285,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -2279,7 +2293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -2287,12 +2301,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/DONNEES DOUANE PYTHON.xlsx
+++ b/data/DONNEES DOUANE PYTHON.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03_Data_Scientist\adam_facture\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782A0440-3377-43D3-AE77-B3EE90F69596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3B3C59-0BAE-4CAC-A481-58B80115FEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="156" windowWidth="23040" windowHeight="15552" activeTab="1" xr2:uid="{1FD75016-A00C-4D20-BE15-4A1B0931F8AE}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="78">
   <si>
     <t>NOM STE</t>
   </si>
@@ -251,13 +251,25 @@
   <si>
     <t>Débardeur</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAGUE</t>
+  </si>
+  <si>
+    <t>BROCHE</t>
+  </si>
+  <si>
+    <t>BRACELET</t>
+  </si>
+  <si>
+    <t>BOUCLE D'OREILLES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +320,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -329,7 +347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -382,12 +400,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -406,6 +459,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal 1" xfId="1" xr:uid="{E00CF652-13B2-4773-AAE9-9218CD5DDD4E}"/>
@@ -785,15 +842,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EA7AF2-AA55-4AC8-863C-5462B8AA831B}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="11.44140625" style="6"/>
@@ -1196,7 +1253,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B37" s="8">
@@ -1204,6 +1261,50 @@
       </c>
       <c r="C37" s="8">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="7">
+        <v>62171000</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="7">
+        <v>62171000</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="7">
+        <v>71171910</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="7">
+        <v>62171000</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>

--- a/data/DONNEES DOUANE PYTHON.xlsx
+++ b/data/DONNEES DOUANE PYTHON.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03_Data_Scientist\adam_facture\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3B3C59-0BAE-4CAC-A481-58B80115FEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4CDAE2-3716-4385-8D33-050D25F175E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="156" windowWidth="23040" windowHeight="15552" activeTab="1" xr2:uid="{1FD75016-A00C-4D20-BE15-4A1B0931F8AE}"/>
   </bookViews>
@@ -262,7 +262,8 @@
     <t>BRACELET</t>
   </si>
   <si>
-    <t>BOUCLE D'OREILLES</t>
+    <t>BOUCLED'OREILLES</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -845,7 +846,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/data/DONNEES DOUANE PYTHON.xlsx
+++ b/data/DONNEES DOUANE PYTHON.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03_Data_Scientist\adam_facture\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4CDAE2-3716-4385-8D33-050D25F175E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616E989B-EB9C-4116-A4E7-A6AC2265138C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="156" windowWidth="23040" windowHeight="15552" activeTab="1" xr2:uid="{1FD75016-A00C-4D20-BE15-4A1B0931F8AE}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="79">
   <si>
     <t>NOM STE</t>
   </si>
@@ -263,6 +263,10 @@
   </si>
   <si>
     <t>BOUCLED'OREILLES</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOITEABIJOUX</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -270,7 +274,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +328,12 @@
     <font>
       <sz val="11"/>
       <color theme="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -441,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -464,6 +474,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal 1" xfId="1" xr:uid="{E00CF652-13B2-4773-AAE9-9218CD5DDD4E}"/>
@@ -843,10 +854,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EA7AF2-AA55-4AC8-863C-5462B8AA831B}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1305,6 +1316,17 @@
         <v>62171000</v>
       </c>
       <c r="C41" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="7">
+        <v>62171000</v>
+      </c>
+      <c r="C42" s="7">
         <v>0.01</v>
       </c>
     </row>

--- a/data/DONNEES DOUANE PYTHON.xlsx
+++ b/data/DONNEES DOUANE PYTHON.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03_Data_Scientist\adam_facture\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616E989B-EB9C-4116-A4E7-A6AC2265138C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0BFF55-E65F-4A94-A47A-E66B647C9EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="156" windowWidth="23040" windowHeight="15552" activeTab="1" xr2:uid="{1FD75016-A00C-4D20-BE15-4A1B0931F8AE}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
   <si>
     <t>NOM STE</t>
   </si>
@@ -268,6 +268,13 @@
   <si>
     <t>BOITEABIJOUX</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTSACEMBALLAGE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRESENTOIR</t>
   </si>
 </sst>
 </file>
@@ -451,7 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -475,6 +482,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal 1" xfId="1" xr:uid="{E00CF652-13B2-4773-AAE9-9218CD5DDD4E}"/>
@@ -854,10 +862,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EA7AF2-AA55-4AC8-863C-5462B8AA831B}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1327,6 +1335,28 @@
         <v>62171000</v>
       </c>
       <c r="C42" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="7">
+        <v>62171000</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="7">
+        <v>62171000</v>
+      </c>
+      <c r="C44" s="7">
         <v>0.01</v>
       </c>
     </row>

--- a/data/DONNEES DOUANE PYTHON.xlsx
+++ b/data/DONNEES DOUANE PYTHON.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03_Data_Scientist\adam_facture\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0BFF55-E65F-4A94-A47A-E66B647C9EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE8D623-B67C-41B5-A4F8-474862636771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="156" windowWidth="23040" windowHeight="15552" activeTab="1" xr2:uid="{1FD75016-A00C-4D20-BE15-4A1B0931F8AE}"/>
   </bookViews>
@@ -458,7 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -482,7 +482,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal 1" xfId="1" xr:uid="{E00CF652-13B2-4773-AAE9-9218CD5DDD4E}"/>
@@ -865,7 +864,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1350,7 +1349,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="14" t="s">
         <v>80</v>
       </c>
       <c r="B44" s="7">

--- a/data/DONNEES DOUANE PYTHON.xlsx
+++ b/data/DONNEES DOUANE PYTHON.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03_Data_Scientist\adam_facture\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE8D623-B67C-41B5-A4F8-474862636771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3D9014-9EA8-4032-A9D6-B1F41C2FF6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="156" windowWidth="23040" windowHeight="15552" activeTab="1" xr2:uid="{1FD75016-A00C-4D20-BE15-4A1B0931F8AE}"/>
   </bookViews>
@@ -275,13 +275,14 @@
   </si>
   <si>
     <t>PRESENTOIR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,12 +332,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="7"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -458,7 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -477,11 +472,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal 1" xfId="1" xr:uid="{E00CF652-13B2-4773-AAE9-9218CD5DDD4E}"/>
@@ -864,13 +858,13 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="11.44140625" style="6"/>
   </cols>
@@ -1272,7 +1266,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="8" t="s">
         <v>73</v>
       </c>
       <c r="B37" s="8">
@@ -1283,80 +1277,80 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="7">
-        <v>62171000</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0.01</v>
+        <v>71171900</v>
+      </c>
+      <c r="C38" s="13">
+        <v>0.15</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="11" t="s">
         <v>75</v>
       </c>
       <c r="B39" s="7">
-        <v>62171000</v>
-      </c>
-      <c r="C39" s="7">
-        <v>0.01</v>
+        <v>71171900</v>
+      </c>
+      <c r="C39" s="13">
+        <v>0.15</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="12" t="s">
         <v>76</v>
       </c>
       <c r="B40" s="7">
-        <v>71171910</v>
-      </c>
-      <c r="C40" s="7">
+        <v>71171900</v>
+      </c>
+      <c r="C40" s="13">
         <v>0.15</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="11" t="s">
         <v>77</v>
       </c>
       <c r="B41" s="7">
-        <v>62171000</v>
-      </c>
-      <c r="C41" s="7">
-        <v>0.01</v>
+        <v>71171900</v>
+      </c>
+      <c r="C41" s="13">
+        <v>0.15</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="11" t="s">
         <v>78</v>
       </c>
       <c r="B42" s="7">
-        <v>62171000</v>
+        <v>42023210</v>
       </c>
       <c r="C42" s="7">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="11" t="s">
         <v>79</v>
       </c>
       <c r="B43" s="7">
-        <v>62171000</v>
-      </c>
-      <c r="C43" s="7">
-        <v>0.01</v>
+        <v>39269097</v>
+      </c>
+      <c r="C43" s="13">
+        <v>0.15</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="11" t="s">
         <v>80</v>
       </c>
       <c r="B44" s="7">
-        <v>62171000</v>
-      </c>
-      <c r="C44" s="7">
-        <v>0.01</v>
+        <v>44219910</v>
+      </c>
+      <c r="C44" s="13">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>

--- a/data/DONNEES DOUANE PYTHON.xlsx
+++ b/data/DONNEES DOUANE PYTHON.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03_Data_Scientist\adam_facture\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3D9014-9EA8-4032-A9D6-B1F41C2FF6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFC2415-5753-4396-89E6-4264CF9A2834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="156" windowWidth="23040" windowHeight="15552" activeTab="1" xr2:uid="{1FD75016-A00C-4D20-BE15-4A1B0931F8AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{1FD75016-A00C-4D20-BE15-4A1B0931F8AE}"/>
   </bookViews>
   <sheets>
     <sheet name="STE+NO HABILITE" sheetId="1" r:id="rId1"/>
@@ -857,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EA7AF2-AA55-4AC8-863C-5462B8AA831B}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -885,10 +885,10 @@
         <v>37</v>
       </c>
       <c r="B2" s="7">
-        <v>62171000</v>
+        <v>42023290</v>
       </c>
       <c r="C2" s="7">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1017,10 +1017,10 @@
         <v>57</v>
       </c>
       <c r="B14" s="7">
-        <v>71162011</v>
+        <v>71171900</v>
       </c>
       <c r="C14" s="7">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1072,10 +1072,10 @@
         <v>67</v>
       </c>
       <c r="B19" s="7">
-        <v>62171000</v>
+        <v>42023290</v>
       </c>
       <c r="C19" s="7">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1149,10 +1149,10 @@
         <v>68</v>
       </c>
       <c r="B26" s="7">
-        <v>62171000</v>
+        <v>42023290</v>
       </c>
       <c r="C26" s="7">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1283,7 +1283,7 @@
       <c r="B38" s="7">
         <v>71171900</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="7">
         <v>0.15</v>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
       <c r="B39" s="7">
         <v>71171900</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="7">
         <v>0.15</v>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       <c r="B40" s="7">
         <v>71171900</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="7">
         <v>0.15</v>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
       <c r="B41" s="7">
         <v>71171900</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="7">
         <v>0.15</v>
       </c>
     </row>

--- a/data/DONNEES DOUANE PYTHON.xlsx
+++ b/data/DONNEES DOUANE PYTHON.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03_Data_Scientist\adam_facture\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFC2415-5753-4396-89E6-4264CF9A2834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D466AF8-9E69-4EF2-9807-29AA96E47654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{1FD75016-A00C-4D20-BE15-4A1B0931F8AE}"/>
   </bookViews>
@@ -231,9 +231,6 @@
     <t>CHEMISIER</t>
   </si>
   <si>
-    <t>FOURRUE</t>
-  </si>
-  <si>
     <t>PARFUM</t>
   </si>
   <si>
@@ -275,6 +272,10 @@
   </si>
   <si>
     <t>PRESENTOIR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOURRUE</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -857,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EA7AF2-AA55-4AC8-863C-5462B8AA831B}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -885,7 +886,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="7">
-        <v>42023290</v>
+        <v>33030010</v>
       </c>
       <c r="C2" s="7">
         <v>0.05</v>
@@ -915,7 +916,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="7">
         <v>62089900</v>
@@ -1025,7 +1026,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="7">
         <v>62042990</v>
@@ -1036,7 +1037,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="7">
         <v>62022000</v>
@@ -1069,13 +1070,13 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B19" s="7">
-        <v>42023290</v>
+        <v>33030010</v>
       </c>
       <c r="C19" s="7">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1146,13 +1147,13 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" s="7">
-        <v>42023290</v>
+        <v>33030010</v>
       </c>
       <c r="C26" s="7">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1223,7 +1224,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B33" s="7">
         <v>61099090</v>
@@ -1267,7 +1268,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="8">
         <v>62089900</v>
@@ -1278,7 +1279,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B38" s="7">
         <v>71171900</v>
@@ -1289,7 +1290,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39" s="7">
         <v>71171900</v>
@@ -1300,7 +1301,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40" s="7">
         <v>71171900</v>
@@ -1311,7 +1312,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B41" s="7">
         <v>71171900</v>
@@ -1322,7 +1323,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B42" s="7">
         <v>42023210</v>
@@ -1333,7 +1334,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43" s="7">
         <v>39269097</v>
@@ -1344,7 +1345,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44" s="7">
         <v>44219910</v>

--- a/data/DONNEES DOUANE PYTHON.xlsx
+++ b/data/DONNEES DOUANE PYTHON.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03_Data_Scientist\adam_facture\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D466AF8-9E69-4EF2-9807-29AA96E47654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69821F2-A976-4738-B6DA-F93F2F141C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{1FD75016-A00C-4D20-BE15-4A1B0931F8AE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{1FD75016-A00C-4D20-BE15-4A1B0931F8AE}"/>
   </bookViews>
   <sheets>
     <sheet name="STE+NO HABILITE" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
   <si>
     <t>NOM STE</t>
   </si>
@@ -276,6 +276,26 @@
   </si>
   <si>
     <t>FOURRUE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAUSSURES</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOTTEFEMMEPVC</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TONGSFEMMEPVC</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SACSENPVC</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TONGSENLOT</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -335,8 +355,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -454,7 +474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -477,6 +497,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal 1" xfId="1" xr:uid="{E00CF652-13B2-4773-AAE9-9218CD5DDD4E}"/>
@@ -818,13 +839,13 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -832,7 +853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -840,7 +861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -856,21 +877,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EA7AF2-AA55-4AC8-863C-5462B8AA831B}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="22.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.46484375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.53125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.46484375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>35</v>
       </c>
@@ -881,7 +902,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
@@ -892,7 +913,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>59</v>
       </c>
@@ -903,7 +924,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>38</v>
       </c>
@@ -914,7 +935,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>69</v>
       </c>
@@ -925,7 +946,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>39</v>
       </c>
@@ -936,7 +957,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>55</v>
       </c>
@@ -947,7 +968,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>56</v>
       </c>
@@ -958,7 +979,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>64</v>
       </c>
@@ -969,7 +990,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>63</v>
       </c>
@@ -980,7 +1001,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
@@ -991,7 +1012,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>66</v>
       </c>
@@ -1002,7 +1023,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>61</v>
       </c>
@@ -1013,7 +1034,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>57</v>
       </c>
@@ -1024,7 +1045,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>70</v>
       </c>
@@ -1035,7 +1056,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>71</v>
       </c>
@@ -1046,7 +1067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>41</v>
       </c>
@@ -1057,7 +1078,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>58</v>
       </c>
@@ -1068,7 +1089,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>80</v>
       </c>
@@ -1079,7 +1100,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>42</v>
       </c>
@@ -1090,7 +1111,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>43</v>
       </c>
@@ -1101,7 +1122,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>54</v>
       </c>
@@ -1112,7 +1133,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>60</v>
       </c>
@@ -1123,7 +1144,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>44</v>
       </c>
@@ -1134,7 +1155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>45</v>
       </c>
@@ -1145,7 +1166,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>67</v>
       </c>
@@ -1156,7 +1177,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>62</v>
       </c>
@@ -1167,7 +1188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>46</v>
       </c>
@@ -1178,7 +1199,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>47</v>
       </c>
@@ -1189,7 +1210,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>48</v>
       </c>
@@ -1200,7 +1221,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>50</v>
       </c>
@@ -1211,7 +1232,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>49</v>
       </c>
@@ -1222,7 +1243,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>68</v>
       </c>
@@ -1233,7 +1254,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>51</v>
       </c>
@@ -1244,7 +1265,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>52</v>
       </c>
@@ -1255,7 +1276,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>53</v>
       </c>
@@ -1266,7 +1287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>72</v>
       </c>
@@ -1277,7 +1298,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>73</v>
       </c>
@@ -1288,7 +1309,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>74</v>
       </c>
@@ -1299,7 +1320,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>75</v>
       </c>
@@ -1310,7 +1331,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>76</v>
       </c>
@@ -1321,7 +1342,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>77</v>
       </c>
@@ -1332,26 +1353,81 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
         <v>78</v>
       </c>
       <c r="B43" s="7">
         <v>39269097</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="7">
         <v>0.15</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
         <v>79</v>
       </c>
       <c r="B44" s="7">
         <v>44219910</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="7">
         <v>0.15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A45" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="14">
+        <v>64022000</v>
+      </c>
+      <c r="C45" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A46" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="14">
+        <v>42022290</v>
+      </c>
+      <c r="C46" s="14">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A47" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="14">
+        <v>64022000</v>
+      </c>
+      <c r="C47" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A48" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="14">
+        <v>64029190</v>
+      </c>
+      <c r="C48" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A49" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="14">
+        <v>64035999</v>
+      </c>
+      <c r="C49" s="14">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1372,21 +1448,21 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.53125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.86328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" customWidth="1"/>
     <col min="10" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="26.5546875" customWidth="1"/>
+    <col min="12" max="12" width="26.53125" customWidth="1"/>
     <col min="13" max="1024" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1424,7 +1500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1448,7 +1524,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1472,7 +1548,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1496,7 +1572,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1520,7 +1596,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1544,7 +1620,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1568,7 +1644,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1592,7 +1668,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1616,7 +1692,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1640,7 +1716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1664,7 +1740,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1688,7 +1764,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1712,7 +1788,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1736,7 +1812,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1760,7 +1836,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1784,7 +1860,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1808,7 +1884,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1832,7 +1908,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1856,7 +1932,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1880,7 +1956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1904,7 +1980,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1928,7 +2004,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1952,7 +2028,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1960,7 +2036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1968,17 +2044,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1986,7 +2062,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1994,7 +2070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2002,7 +2078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -2010,7 +2086,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -2018,7 +2094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -2026,7 +2102,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -2045,16 +2121,16 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.7" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="14.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.53125" customWidth="1"/>
     <col min="2" max="9" width="12.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1328125" bestFit="1" customWidth="1"/>
     <col min="12" max="1024" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2089,7 +2165,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2102,7 +2178,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2115,7 +2191,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2128,7 +2204,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2141,7 +2217,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2154,7 +2230,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2167,7 +2243,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2180,7 +2256,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2193,7 +2269,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2206,7 +2282,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2219,7 +2295,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2232,7 +2308,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2245,7 +2321,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2258,7 +2334,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2271,7 +2347,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2284,7 +2360,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2297,7 +2373,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2310,7 +2386,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2323,7 +2399,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2336,7 +2412,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2349,7 +2425,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2362,7 +2438,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2375,7 +2451,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="25" spans="1:11" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="14.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2383,7 +2459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="14.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2391,17 +2467,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="14.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="14.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="14.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -2409,7 +2485,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="14.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -2417,7 +2493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="14.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2425,7 +2501,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="14.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -2433,7 +2509,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="14.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -2441,7 +2517,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="14.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -2449,7 +2525,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="14.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>30</v>
       </c>

--- a/data/DONNEES DOUANE PYTHON.xlsx
+++ b/data/DONNEES DOUANE PYTHON.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03_Data_Scientist\adam_facture\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69821F2-A976-4738-B6DA-F93F2F141C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95D9FE3-92EA-4E36-B85E-70A92CA62BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{1FD75016-A00C-4D20-BE15-4A1B0931F8AE}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="87">
   <si>
     <t>NOM STE</t>
   </si>
@@ -283,19 +283,23 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>BOTTEFEMMEPVC</t>
+    <t>TONGS EN LOT</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>TONGSFEMMEPVC</t>
+    <t>SACS EN PVC</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>SACSENPVC</t>
+    <t>TONGS FEMME PVC</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>TONGSENLOT</t>
+    <t>BOTTE FEMME PVC</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOTTES EN CUIR</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -877,10 +881,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EA7AF2-AA55-4AC8-863C-5462B8AA831B}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -1377,7 +1381,7 @@
     </row>
     <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A45" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B45" s="14">
         <v>64022000</v>
@@ -1388,7 +1392,7 @@
     </row>
     <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A46" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B46" s="14">
         <v>42022290</v>
@@ -1399,7 +1403,7 @@
     </row>
     <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A47" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B47" s="14">
         <v>64022000</v>
@@ -1410,7 +1414,7 @@
     </row>
     <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A48" s="13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B48" s="14">
         <v>64029190</v>
@@ -1421,12 +1425,23 @@
     </row>
     <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A49" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="14">
+        <v>64029190</v>
+      </c>
+      <c r="C49" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+      <c r="A50" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B50" s="14">
         <v>64035999</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C50" s="14">
         <v>0.5</v>
       </c>
     </row>
